--- a/Java/Java选择题.xlsx
+++ b/Java/Java选择题.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E59C7-38DE-41A8-AD35-65DA8C0EF139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2113,12 +2119,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2126,8 +2132,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2173,17 +2186,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2221,7 +2242,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2255,6 +2276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2289,9 +2311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2464,14 +2487,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2513,7 +2538,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2566,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2580,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2594,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2608,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2664,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2678,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2706,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +2720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2709,7 +2734,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2748,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2790,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2804,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2832,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2846,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2860,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2888,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2902,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2916,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +2930,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2919,7 +2944,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2958,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +2986,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +3000,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +3014,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3003,7 +3028,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3042,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3056,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3045,7 +3070,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3084,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3098,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3087,7 +3112,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3126,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3140,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3129,7 +3154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3168,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3182,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3210,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3224,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3238,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3252,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3266,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3255,7 +3280,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3269,7 +3294,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3283,7 +3308,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3297,7 +3322,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3311,7 +3336,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3325,7 +3350,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3339,7 +3364,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3353,7 +3378,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -3367,7 +3392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3381,7 +3406,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3420,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3409,7 +3434,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3423,7 +3448,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3437,7 +3462,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3465,7 +3490,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3504,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3518,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3507,7 +3532,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3535,7 +3560,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3549,7 +3574,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3577,7 +3602,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3616,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3605,7 +3630,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3619,7 +3644,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3658,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +3672,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3686,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +3700,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -3703,7 +3728,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3717,7 +3742,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3756,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3745,7 +3770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3759,7 +3784,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3773,7 +3798,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3812,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +3840,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3854,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3843,7 +3868,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3857,7 +3882,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3896,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3885,7 +3910,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3899,7 +3924,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3913,7 +3938,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3927,7 +3952,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3941,7 +3966,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -3969,7 +3994,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +4008,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -3997,7 +4022,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -4011,7 +4036,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +4050,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -4039,7 +4064,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -4053,7 +4078,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4067,7 +4092,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -4081,7 +4106,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -4095,7 +4120,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -4109,7 +4134,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +4148,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -4151,7 +4176,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -4165,7 +4190,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -4179,7 +4204,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4207,7 +4232,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -4221,7 +4246,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -4235,7 +4260,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -4249,7 +4274,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -4263,7 +4288,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4302,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +4316,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4330,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +4344,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +4358,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4347,7 +4372,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -4361,7 +4386,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -4375,7 +4400,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -4389,7 +4414,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -4417,7 +4442,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4431,7 +4456,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -4445,7 +4470,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -4459,7 +4484,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4498,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -4487,7 +4512,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -4501,7 +4526,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -4515,7 +4540,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -4529,7 +4554,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -4543,7 +4568,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4582,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -4571,7 +4596,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -4585,7 +4610,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4624,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -4613,7 +4638,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +4652,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4641,7 +4666,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -4655,7 +4680,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4694,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +4708,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -4697,7 +4722,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -4711,7 +4736,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4725,7 +4750,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4764,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4753,7 +4778,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4767,7 +4792,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4806,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4820,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +4834,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4837,7 +4862,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4851,7 +4876,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4865,7 +4890,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4879,7 +4904,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4893,7 +4918,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4907,7 +4932,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4921,7 +4946,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4935,7 +4960,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4949,7 +4974,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4963,7 +4988,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4977,7 +5002,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4991,7 +5016,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -5005,7 +5030,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -5019,7 +5044,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -5033,7 +5058,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5072,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -5061,7 +5086,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -5075,7 +5100,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5114,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -5103,7 +5128,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -5117,7 +5142,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5156,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5170,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5159,7 +5184,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5198,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -5187,7 +5212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5226,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5240,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -5229,7 +5254,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -5243,7 +5268,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -5257,7 +5282,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5271,7 +5296,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -5285,7 +5310,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -5299,7 +5324,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -5313,7 +5338,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -5327,7 +5352,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -5341,7 +5366,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5380,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -5369,7 +5394,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -5383,7 +5408,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -5397,7 +5422,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -5411,7 +5436,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5450,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5439,7 +5464,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5453,7 +5478,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5467,7 +5492,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5481,7 +5506,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5495,7 +5520,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +5534,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5523,7 +5548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5562,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5576,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5565,7 +5590,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5604,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5607,7 +5632,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5621,7 +5646,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +5660,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5674,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5688,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5702,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5691,7 +5716,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5719,7 +5744,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -5733,7 +5758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -5747,7 +5772,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -5761,7 +5786,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5800,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5789,7 +5814,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5803,7 +5828,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5817,7 +5842,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -5831,7 +5856,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -5845,7 +5870,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -5859,7 +5884,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5873,7 +5898,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5887,7 +5912,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5901,7 +5926,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5940,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +5954,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +5968,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5957,7 +5982,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5971,7 +5996,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5985,7 +6010,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5999,7 +6024,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -6013,7 +6038,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -6027,7 +6052,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -6041,7 +6066,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -6055,7 +6080,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6069,7 +6094,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -6083,7 +6108,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -6097,7 +6122,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -6111,7 +6136,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -6125,7 +6150,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -6139,7 +6164,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -6153,7 +6178,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -6167,7 +6192,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6181,7 +6206,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -6195,7 +6220,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6234,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6223,7 +6248,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -6237,7 +6262,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -6251,7 +6276,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -6265,7 +6290,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -6279,7 +6304,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -6293,7 +6318,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6307,7 +6332,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -6321,7 +6346,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -6335,7 +6360,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6374,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6388,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -6377,7 +6402,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6416,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6430,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6419,7 +6444,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6433,7 +6458,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -6447,7 +6472,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -6461,7 +6486,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -6475,7 +6500,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -6489,7 +6514,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6503,7 +6528,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6517,7 +6542,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6531,7 +6556,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6545,7 +6570,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6584,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -6573,7 +6598,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6587,7 +6612,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6601,7 +6626,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6640,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6629,7 +6654,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6643,7 +6668,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6657,7 +6682,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6671,7 +6696,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -6685,7 +6710,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -6699,7 +6724,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -6713,7 +6738,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -6727,7 +6752,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6766,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -6755,7 +6780,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -6769,7 +6794,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -6783,7 +6808,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -6797,7 +6822,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -6811,7 +6836,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -6825,7 +6850,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -6839,7 +6864,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -6853,7 +6878,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6892,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -6881,7 +6906,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -6895,7 +6920,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -6909,7 +6934,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -6923,7 +6948,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -6937,7 +6962,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -6951,7 +6976,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -6965,7 +6990,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +7004,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -6993,7 +7018,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -7007,7 +7032,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7021,7 +7046,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7060,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -7049,7 +7074,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -7063,7 +7088,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -7077,7 +7102,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -7091,7 +7116,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -7105,7 +7130,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -7119,7 +7144,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7133,7 +7158,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -7147,7 +7172,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -7161,7 +7186,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -7175,7 +7200,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -7189,7 +7214,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +7228,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7242,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -7245,7 +7270,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -7259,7 +7284,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7298,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -7287,7 +7312,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -7301,7 +7326,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -7315,7 +7340,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -7329,7 +7354,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -7343,7 +7368,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -7357,7 +7382,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -7371,7 +7396,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -7385,7 +7410,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -7399,7 +7424,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -7413,7 +7438,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -7427,7 +7452,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -7441,7 +7466,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -7455,7 +7480,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -7469,7 +7494,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -7483,7 +7508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -7497,7 +7522,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -7511,7 +7536,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -7525,7 +7550,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -7539,7 +7564,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -7553,7 +7578,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7592,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -7581,7 +7606,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -7595,7 +7620,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -7609,7 +7634,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -7623,7 +7648,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -7637,7 +7662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -7652,6 +7677,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>